--- a/data/Datos.xlsx
+++ b/data/Datos.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bcp\REDLO_test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REDLO_test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2F4FF6-0659-49B5-9ED8-1709E73DF96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FE2760-CEB3-45B0-B2E5-8003E29F2103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2220" windowWidth="20730" windowHeight="11040" xr2:uid="{CD152227-84A2-4FEB-B512-5F1D23C3FE95}"/>
+    <workbookView xWindow="-20610" yWindow="2025" windowWidth="20730" windowHeight="11040" xr2:uid="{CD152227-84A2-4FEB-B512-5F1D23C3FE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
   <si>
     <t>TEST01</t>
   </si>
@@ -92,9 +92,6 @@
     <t>PE-01-03-02</t>
   </si>
   <si>
-    <t>aakac88698@galcake.com</t>
-  </si>
-  <si>
     <t>pomzknbdf4h</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>/auth/login/</t>
   </si>
   <si>
-    <t>cosel13347@huvacliq.com</t>
-  </si>
-  <si>
     <t>TEST03</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
     <t>PE-01-03-03</t>
   </si>
   <si>
-    <t>aakat88698@galcake.com</t>
-  </si>
-  <si>
     <t>14523698742</t>
   </si>
   <si>
@@ -137,9 +128,6 @@
     <t>985412365</t>
   </si>
   <si>
-    <t>aakat877698@galcake.com</t>
-  </si>
-  <si>
     <t>14596698742</t>
   </si>
   <si>
@@ -153,34 +141,12 @@
   </si>
   <si>
     <t>TEST10</t>
-  </si>
-  <si>
-    <t>016160079a2dcb92ba90f5848964a46d18898615</t>
-  </si>
-  <si>
-    <t>c6ae4b55564a3ab1f2eb2d7e4d8bf46c46b461d7</t>
-  </si>
-  <si>
-    <t>22f1d631ff5f600419391242bee6d9f49efca6e4</t>
-  </si>
-  <si>
-    <t>6169ceac82c4e1c6ea43a27e78301b8bdc9fe56d</t>
-  </si>
-  <si>
-    <t>f18d717858dcded1a206e68ad79c0bd389c34eab</t>
-  </si>
-  <si>
-    <t>23fd3d542a5273cd29daccdfbc7c1f84ef36876e</t>
-  </si>
-  <si>
-    <t>22f5f9f67b178eda129717ee4d77bb5d49068a4b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -569,23 +535,23 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="9" max="11" style="1" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="41.28515625" collapsed="true"/>
-    <col min="14" max="16384" style="1" width="11.42578125" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="11" width="11.42578125" style="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="41.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="11.42578125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -636,9 +602,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -664,44 +628,37 @@
         <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
@@ -727,19 +684,17 @@
         <v>16</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
@@ -750,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
@@ -765,73 +720,65 @@
         <v>16</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
@@ -857,16 +804,14 @@
         <v>16</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
@@ -877,7 +822,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
@@ -892,23 +837,12 @@
         <v>16</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{EF5EA426-6C11-4EA7-A2E6-6A64811028B6}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{E9B5451B-4BF5-4399-94E0-B73960F4F283}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{3A93625C-0B9F-49D4-A81D-82E0866673E2}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{02C1B377-617B-4845-8150-E7FA369DEA7A}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{752D0DFF-D192-481C-A8F2-E86932D83DBF}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{B1C6A540-833E-4B7D-95BB-A140A7533CD5}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{23389805-CA47-4A14-84A2-FEEC3FB9892E}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{A51DFFB2-4462-40C4-8775-E9CB1A81FA32}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{EB1556A7-98CC-4126-9BDA-937C3D8A20ED}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>